--- a/public/Movimientos Tarjeta.xlsx
+++ b/public/Movimientos Tarjeta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\booking\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455BED95-0AF0-493E-8A2B-0FE0D37B2604}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A12656C-6FE1-42D7-BDE2-7C7EC8D7B1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -912,7 +912,7 @@
   <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5314,7 +5314,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:H183" xr:uid="{71C633B2-0AA9-4641-B951-5C05F4390250}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId1"/>
 </worksheet>
